--- a/medicine/Enfance/Firmin_Marbeau/Firmin_Marbeau.xlsx
+++ b/medicine/Enfance/Firmin_Marbeau/Firmin_Marbeau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Baptiste Firmin Marbeau est un homme politique, jurisconsulte et philanthrope français, né le 18 mai 1798 à Brive (Corrèze) et mort le 10 octobre 1875 (à 77 ans) à Saint-Cloud, fondateur des crèches en France.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils d'un négociant, Marbeau naît à Brive le 18 mai 1798, rue Majour. Il suit ses études au collège des Doctrinaires puis part à Paris où il fait des études de droit. Devenu docteur en droit, il se rend acquéreur d’une importante étude d’avoué proche du tribunal de première instance de la Seine. Malade et surmené, il vend son étude en 1831. Puis, à peine rétabli, il suit des cours à la Sorbonne et au collège de France et s’inscrit comme avocat à la Cour Royale.
 Découvrant à Paris les conditions de vie de la classe ouvrière, il n’aura de cesse que de lutter contre les injustices sociales, administratives ou politiques.
@@ -548,7 +562,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Politique des intérêts ou essai sur les moyens d’améliorer le sort des travailleurs sans nuire aux propriétaires, de concilier l’ordre avec la liberté, la stabilité et le progrès (1834, livre signé "par un travailleur devenu propriétaire") ;
 Etude sur l'économie sociale (1844) ;
@@ -583,7 +599,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Une école Firmin-Marbeau est construite à Brive en 1908 ;
 L'avenue Firmin Marbeau relie, à Brive, la place de la République et l'avenue Jean-Jaurès ;
@@ -615,7 +633,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Brive Mag', N°221, p. 19, Le fondateur des crèches en France (catégorie "Trésors d'archives")
 Hommage d'Armand Gasté à Philippe, Gustave et Ferdinand de la Renaudière (Pages 22–23)</t>
